--- a/index.xlsx
+++ b/index.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8964FDC-0D53-44A6-A1FF-9D08DDFF877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B8964FDC-0D53-44A6-A1FF-9D08DDFF877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2A4A22-62C9-4FF9-8286-F7110FE46811}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">index!$A$1:$E$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">index!$A$1:$E$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Malawi</t>
   </si>
@@ -264,68 +264,7 @@
     <t>Education Out Loud (EOL) Results Framework (Oxfam IBIS)</t>
   </si>
   <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>(i) Percentage and (ii) cumulative amounts of donor commitments fulfilled</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">For more information on the indicators and data sources, click to view the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"GPE 2025 Results Framework Guidelines"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Results Framework webpage".</t>
-    </r>
   </si>
   <si>
     <r>
@@ -351,12 +290,6 @@
     </r>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>indicator 18 is at the donor level, thus not applicable for the country level dataset.</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -396,14 +329,109 @@
     <t>Version 1.01</t>
   </si>
   <si>
-    <t>GPE 2025 Results Framework Data – December 2022</t>
+    <t>GPE 2025 Results Framework Data – September 2023</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to view information on the indicators and data sources, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GPE results framework 2025: Methodological technical guidelines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click her</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to access</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GPE results framework webpage.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,15 +521,6 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -512,6 +531,35 @@
       <sz val="8.8000000000000007"/>
       <color rgb="FF333333"/>
       <name val="Calibri,sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -598,14 +646,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -628,7 +677,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,15 +695,20 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{56E541BB-650D-4DB5-BFFE-3BCA3DDC4D47}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -990,46 +1044,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="82.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="4"/>
-      <c r="E1" s="8" t="s">
-        <v>86</v>
+      <c r="D1" s="3"/>
+      <c r="E1" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="46.35" customHeight="1">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -1037,489 +1091,485 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" customHeight="1">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" customHeight="1">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" customHeight="1">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1"/>
     <row r="16" spans="1:5" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="48.6" customHeight="1">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="43.7" customHeight="1">
-      <c r="B18" s="15">
+    <row r="18" spans="2:4" ht="43.65" customHeight="1">
+      <c r="B18" s="14">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="48" customHeight="1">
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="34.35" customHeight="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="30" customHeight="1">
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>4</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" customHeight="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" customHeight="1">
-      <c r="B23" s="17"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="30" customHeight="1">
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>5</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" customHeight="1">
-      <c r="B25" s="17"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="30" customHeight="1">
-      <c r="B26" s="17"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" customHeight="1">
-      <c r="B27" s="17"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" customHeight="1">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>6</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30" customHeight="1">
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>7</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="30" customHeight="1">
-      <c r="B30" s="17"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30" customHeight="1">
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>8</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="30" customHeight="1">
-      <c r="B32" s="17"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30" customHeight="1">
-      <c r="B33" s="17"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="30" customHeight="1">
-      <c r="B34" s="17"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" customHeight="1">
-      <c r="B35" s="17"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30" customHeight="1">
-      <c r="B36" s="17"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30" customHeight="1">
-      <c r="B37" s="17"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="30" customHeight="1">
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>9</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" customHeight="1">
-      <c r="B39" s="17"/>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="30" customHeight="1">
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>10</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30" customHeight="1">
-      <c r="B41" s="17"/>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="30" customHeight="1">
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>11</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30" customHeight="1">
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>12</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" customHeight="1">
-      <c r="B44" s="17"/>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="30" customHeight="1">
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>13</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="30" customHeight="1">
-      <c r="B46" s="17"/>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="175.7" customHeight="1">
-      <c r="B47" s="17">
+    <row r="47" spans="2:4" ht="175.65" customHeight="1">
+      <c r="B47" s="16">
         <v>14</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="31.15" customHeight="1">
-      <c r="B48" s="17"/>
-      <c r="C48" s="9" t="s">
+    <row r="48" spans="2:4" ht="31.2" customHeight="1">
+      <c r="B48" s="16"/>
+      <c r="C48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="30" customHeight="1">
-      <c r="B49" s="15">
+    <row r="49" spans="1:4" ht="30" customHeight="1">
+      <c r="B49" s="14">
         <v>15</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="30" customHeight="1">
-      <c r="B50" s="17">
+    <row r="50" spans="1:4" ht="30" customHeight="1">
+      <c r="B50" s="16">
         <v>16</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="30" customHeight="1">
-      <c r="B51" s="17"/>
-      <c r="C51" s="9" t="s">
+    <row r="51" spans="1:4" ht="30" customHeight="1">
+      <c r="B51" s="16"/>
+      <c r="C51" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" customHeight="1">
-      <c r="B52" s="17"/>
-      <c r="C52" s="9" t="s">
+    <row r="52" spans="1:4" ht="30" customHeight="1">
+      <c r="B52" s="16"/>
+      <c r="C52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="30" customHeight="1">
-      <c r="B53" s="15">
+    <row r="53" spans="1:4" ht="30" customHeight="1">
+      <c r="B53" s="14">
         <v>17</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="28.7" customHeight="1">
-      <c r="B54" s="15" t="s">
+    <row r="54" spans="1:4" ht="28.65" customHeight="1">
+      <c r="B54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="19"/>
+      <c r="B58" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="19"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.4" customHeight="1">
+      <c r="B60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="3" t="s">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="14.45" customHeight="1">
-      <c r="B60" s="1" t="s">
+    <row r="62" spans="1:4">
+      <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1538,11 +1588,11 @@
     <mergeCell ref="B45:B46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1" display="For more information on the indicators and data sources, click to view the &quot;GPE 2025 Results Framework Guidelines.&quot;" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C12" location="data_country!A1" display="Country level indicator data" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C13" location="data_aggregate!A1" display="Aggregated level indicator data" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C14" location="metadata!A1" display="Metada" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B58" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B57" r:id="rId1" display="Note: For more information on the indicators and data sources, click to view the &quot;GPE 2025 Results Framework Guidelines&quot;" xr:uid="{66F05AF7-6B10-45BD-91E1-BFF86ECB1947}"/>
+    <hyperlink ref="B58" r:id="rId2" display="and the &quot;Results Framework webpage&quot;." xr:uid="{A0BCDDDC-AFD1-4387-AB58-594C09136144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId3"/>
@@ -1550,26 +1600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76489bf4-bded-4f11-9d0c-f10eba72e5b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100415457F2A0B2A44BA4AC3361D0C877EC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9a85eb89fc76f2e59e88c412ae9cb63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76489bf4-bded-4f11-9d0c-f10eba72e5b8" xmlns:ns3="13bc3b31-cb49-4779-b9a7-df3b7827bfe3" xmlns:ns4="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40a35a0503bf57c14b70bddaf55f5bab" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="76489bf4-bded-4f11-9d0c-f10eba72e5b8"/>
@@ -1811,26 +1841,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C26E4C-613F-4774-A62B-BA0851254A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D1993A-20A7-482B-9C19-D5B0A99EEDEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76489bf4-bded-4f11-9d0c-f10eba72e5b8"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76489bf4-bded-4f11-9d0c-f10eba72e5b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01625C28-D037-44AA-A7D4-5D996854BC52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1848,4 +1879,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C26E4C-613F-4774-A62B-BA0851254A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D1993A-20A7-482B-9C19-D5B0A99EEDEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76489bf4-bded-4f11-9d0c-f10eba72e5b8"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B8964FDC-0D53-44A6-A1FF-9D08DDFF877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2A4A22-62C9-4FF9-8286-F7110FE46811}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B8964FDC-0D53-44A6-A1FF-9D08DDFF877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D2E3B1-A7CA-4BF9-BAA4-E9A4ED83B35D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not applicable </t>
   </si>
   <si>
     <t>n/s</t>
@@ -425,6 +422,9 @@
       </rPr>
       <t xml:space="preserve"> GPE results framework webpage.</t>
     </r>
+  </si>
+  <si>
+    <t>not applicable</t>
   </si>
 </sst>
 </file>
@@ -692,6 +692,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,9 +704,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
@@ -1059,20 +1059,20 @@
     <row r="1" spans="1:5">
       <c r="D1" s="3"/>
       <c r="E1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="4"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="48" customHeight="1">
-      <c r="B19" s="16">
+      <c r="B19" s="19">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="34.35" customHeight="1">
-      <c r="B20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="30" customHeight="1">
-      <c r="B21" s="16">
+      <c r="B21" s="19">
         <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" customHeight="1">
-      <c r="B22" s="16"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" customHeight="1">
-      <c r="B23" s="16"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30" customHeight="1">
-      <c r="B24" s="16">
+      <c r="B24" s="19">
         <v>5</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" customHeight="1">
-      <c r="B25" s="16"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="30" customHeight="1">
-      <c r="B26" s="16"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" customHeight="1">
-      <c r="B27" s="16"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30" customHeight="1">
-      <c r="B29" s="16">
+      <c r="B29" s="19">
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30" customHeight="1">
-      <c r="B30" s="16"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30" customHeight="1">
-      <c r="B31" s="16">
+      <c r="B31" s="19">
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30" customHeight="1">
-      <c r="B32" s="16"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="30" customHeight="1">
-      <c r="B33" s="16"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30" customHeight="1">
-      <c r="B34" s="16"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1299,7 +1299,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" customHeight="1">
-      <c r="B35" s="16"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="30" customHeight="1">
-      <c r="B36" s="16"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="30" customHeight="1">
-      <c r="B37" s="16"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="30" customHeight="1">
-      <c r="B38" s="16">
+      <c r="B38" s="19">
         <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" customHeight="1">
-      <c r="B39" s="16"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="8" t="s">
         <v>44</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30" customHeight="1">
-      <c r="B40" s="16">
+      <c r="B40" s="19">
         <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -1357,7 +1357,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="30" customHeight="1">
-      <c r="B41" s="16"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="8" t="s">
         <v>47</v>
       </c>
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="30" customHeight="1">
-      <c r="B43" s="16">
+      <c r="B43" s="19">
         <v>12</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" customHeight="1">
-      <c r="B44" s="16"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="8" t="s">
         <v>52</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="30" customHeight="1">
-      <c r="B45" s="16">
+      <c r="B45" s="19">
         <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="30" customHeight="1">
-      <c r="B46" s="16"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="8" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="175.65" customHeight="1">
-      <c r="B47" s="16">
+      <c r="B47" s="19">
         <v>14</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="31.2" customHeight="1">
-      <c r="B48" s="16"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="8" t="s">
         <v>57</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
-      <c r="B50" s="16">
+      <c r="B50" s="19">
         <v>16</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
-      <c r="B51" s="16"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="8" t="s">
         <v>63</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1">
-      <c r="B52" s="16"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="8" t="s">
         <v>64</v>
       </c>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="54" spans="1:4" ht="28.65" customHeight="1">
       <c r="B54" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>67</v>
@@ -1505,18 +1505,18 @@
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="16"/>
+      <c r="B58" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="19"/>
-      <c r="B58" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="19"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="B60" s="1" t="s">
@@ -1529,47 +1529,47 @@
         <v>69</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
